--- a/tut05/output/0501EE08.xlsx
+++ b/tut05/output/0501EE08.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.469387755102041</v>
+        <v>7.47</v>
       </c>
       <c r="C6" t="n">
-        <v>8.227272727272727</v>
+        <v>8.23</v>
       </c>
       <c r="D6" t="n">
-        <v>7.695652173913044</v>
+        <v>7.7</v>
       </c>
       <c r="E6" t="n">
-        <v>7.543478260869565</v>
+        <v>7.54</v>
       </c>
       <c r="F6" t="n">
-        <v>8.076923076923077</v>
+        <v>8.08</v>
       </c>
       <c r="G6" t="n">
-        <v>7.125</v>
+        <v>7.12</v>
       </c>
       <c r="H6" t="n">
-        <v>8.511627906976743</v>
+        <v>8.51</v>
       </c>
       <c r="I6" t="n">
-        <v>8.368421052631579</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.469387755102041</v>
+        <v>7.47</v>
       </c>
       <c r="C8" t="n">
-        <v>7.827956989247312</v>
+        <v>7.83</v>
       </c>
       <c r="D8" t="n">
-        <v>7.784172661870503</v>
+        <v>7.78</v>
       </c>
       <c r="E8" t="n">
-        <v>7.724324324324324</v>
+        <v>7.72</v>
       </c>
       <c r="F8" t="n">
-        <v>7.785714285714286</v>
+        <v>7.79</v>
       </c>
       <c r="G8" t="n">
-        <v>7.685606060606061</v>
+        <v>7.69</v>
       </c>
       <c r="H8" t="n">
-        <v>7.801302931596092</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.863768115942029</v>
+        <v>7.86</v>
       </c>
     </row>
   </sheetData>
